--- a/src/main/webapp/sql/import_excel/항공권 목록.xlsx
+++ b/src/main/webapp/sql/import_excel/항공권 목록.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
   <si>
     <t>FSI_IDX</t>
   </si>
@@ -76,13 +76,64 @@
     <t>ICN</t>
   </si>
   <si>
-    <t>CJJ</t>
-  </si>
-  <si>
-    <t>KSG</t>
-  </si>
-  <si>
-    <t>KAG</t>
+    <t>HND</t>
+  </si>
+  <si>
+    <t>2019-04-29 08:30</t>
+  </si>
+  <si>
+    <t>2019-04-29 11:00</t>
+  </si>
+  <si>
+    <t>2019-04-30 11:00</t>
+  </si>
+  <si>
+    <t>2019-04-30 13:30</t>
+  </si>
+  <si>
+    <t>TAO</t>
+  </si>
+  <si>
+    <t>2019-05-01 14:15</t>
+  </si>
+  <si>
+    <t>2019-05-01 15:00</t>
+  </si>
+  <si>
+    <t>2019-05-03 19:10</t>
+  </si>
+  <si>
+    <t>2019-05-03 20:50</t>
+  </si>
+  <si>
+    <t>JFK</t>
+  </si>
+  <si>
+    <t>2019-05-03 19:30</t>
+  </si>
+  <si>
+    <t>2019-05-04 21:00</t>
+  </si>
+  <si>
+    <t>2019-05-05 17:30</t>
+  </si>
+  <si>
+    <t>2019-05-06 19:00</t>
+  </si>
+  <si>
+    <t>SYD</t>
+  </si>
+  <si>
+    <t>2019-05-05 18:40</t>
+  </si>
+  <si>
+    <t>2019-05-06 06:15</t>
+  </si>
+  <si>
+    <t>2019-05-14 18:30</t>
+  </si>
+  <si>
+    <t>2019-05-15 06:05</t>
   </si>
   <si>
     <t>GMP</t>
@@ -91,22 +142,58 @@
     <t>CJU</t>
   </si>
   <si>
-    <t>MOK</t>
-  </si>
-  <si>
-    <t>PUS</t>
-  </si>
-  <si>
-    <t>KSW</t>
+    <t>2019-05-03 18:45</t>
+  </si>
+  <si>
+    <t>2019-05-03 19:55</t>
+  </si>
+  <si>
+    <t>2019-05-05 18:45</t>
+  </si>
+  <si>
+    <t>2019-05-05 19:55</t>
+  </si>
+  <si>
+    <t>2019-05-10 17:30</t>
+  </si>
+  <si>
+    <t>2019-05-11 19:00</t>
+  </si>
+  <si>
+    <t>HAN</t>
+  </si>
+  <si>
+    <t>2019-05-10 21:10</t>
+  </si>
+  <si>
+    <t>2019-05-10 23:45</t>
+  </si>
+  <si>
+    <t>2019-05-13 21:10</t>
+  </si>
+  <si>
+    <t>2019-05-13 23:45</t>
+  </si>
+  <si>
+    <t>TPE</t>
+  </si>
+  <si>
+    <t>2019-05-18 08:05</t>
+  </si>
+  <si>
+    <t>2019-05-18 09:30</t>
+  </si>
+  <si>
+    <t>2019-05-21 08:05</t>
+  </si>
+  <si>
+    <t>2019-05-21 09:30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm"/>
-  </numFmts>
   <fonts count="3">
     <font>
       <sz val="10.0"/>
@@ -139,11 +226,11 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -169,6 +256,8 @@
   <cols>
     <col customWidth="1" min="3" max="3" width="21.29"/>
     <col customWidth="1" min="4" max="4" width="19.14"/>
+    <col customWidth="1" min="7" max="7" width="23.14"/>
+    <col customWidth="1" min="8" max="8" width="22.86"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -246,41 +335,41 @@
       <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="2">
-        <v>43559.5</v>
-      </c>
-      <c r="H2" s="2">
-        <v>43561.5</v>
+      <c r="G2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="K2" s="1">
         <v>0.0</v>
       </c>
       <c r="L2" s="1">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="M2" s="1">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="N2" s="1">
-        <v>1.0</v>
+        <v>140.0</v>
       </c>
       <c r="O2" s="1">
-        <v>100000.0</v>
+        <v>156030.0</v>
       </c>
       <c r="P2" s="1">
-        <v>200000.0</v>
+        <v>98030.0</v>
       </c>
       <c r="Q2" s="1">
-        <v>300000.0</v>
+        <v>78030.0</v>
       </c>
       <c r="R2" s="3">
-        <v>3000.0</v>
+        <v>150.0</v>
       </c>
       <c r="S2" s="1">
-        <v>2000.0</v>
+        <v>98.0</v>
       </c>
       <c r="T2" s="1">
-        <v>1000.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="3">
@@ -291,52 +380,46 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2">
-        <v>43560.5</v>
-      </c>
-      <c r="H3" s="2">
-        <v>43562.5</v>
-      </c>
-      <c r="I3" s="2">
-        <v>43561.5</v>
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="K3" s="1">
         <v>0.0</v>
       </c>
       <c r="L3" s="1">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="M3" s="1">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="N3" s="1">
-        <v>1.0</v>
+        <v>140.0</v>
       </c>
       <c r="O3" s="1">
-        <v>100000.0</v>
+        <v>156030.0</v>
       </c>
       <c r="P3" s="1">
-        <v>200000.0</v>
+        <v>98030.0</v>
       </c>
       <c r="Q3" s="1">
-        <v>300000.0</v>
+        <v>78030.0</v>
       </c>
       <c r="R3" s="3">
-        <v>3000.0</v>
+        <v>150.0</v>
       </c>
       <c r="S3" s="1">
-        <v>2000.0</v>
+        <v>98.0</v>
       </c>
       <c r="T3" s="1">
-        <v>1000.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="4">
@@ -344,49 +427,49 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2">
-        <v>43561.5</v>
-      </c>
-      <c r="H4" s="2">
-        <v>43563.5</v>
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="K4" s="1">
         <v>0.0</v>
       </c>
       <c r="L4" s="1">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="M4" s="1">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="N4" s="1">
-        <v>1.0</v>
+        <v>140.0</v>
       </c>
       <c r="O4" s="1">
-        <v>100000.0</v>
+        <v>136030.0</v>
       </c>
       <c r="P4" s="1">
-        <v>200000.0</v>
+        <v>76000.0</v>
       </c>
       <c r="Q4" s="1">
-        <v>300000.0</v>
+        <v>65000.0</v>
       </c>
       <c r="R4" s="3">
-        <v>3000.0</v>
+        <v>130.0</v>
       </c>
       <c r="S4" s="1">
-        <v>2000.0</v>
+        <v>76.0</v>
       </c>
       <c r="T4" s="1">
-        <v>1000.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="5">
@@ -394,49 +477,49 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="2">
-        <v>43562.5</v>
-      </c>
-      <c r="H5" s="2">
-        <v>43564.5</v>
+        <v>20</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="K5" s="1">
         <v>0.0</v>
       </c>
       <c r="L5" s="1">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="M5" s="1">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="N5" s="1">
-        <v>1.0</v>
+        <v>140.0</v>
       </c>
       <c r="O5" s="1">
-        <v>100000.0</v>
+        <v>136030.0</v>
       </c>
       <c r="P5" s="1">
-        <v>200000.0</v>
+        <v>76000.0</v>
       </c>
       <c r="Q5" s="1">
-        <v>300000.0</v>
+        <v>65000.0</v>
       </c>
       <c r="R5" s="3">
-        <v>3000.0</v>
+        <v>130.0</v>
       </c>
       <c r="S5" s="1">
-        <v>2000.0</v>
+        <v>76.0</v>
       </c>
       <c r="T5" s="1">
-        <v>1000.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="6">
@@ -444,49 +527,49 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="2">
-        <v>43563.5</v>
-      </c>
-      <c r="H6" s="2">
-        <v>43565.5</v>
+        <v>31</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="K6" s="1">
         <v>0.0</v>
       </c>
       <c r="L6" s="1">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="M6" s="1">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="N6" s="1">
-        <v>1.0</v>
+        <v>140.0</v>
       </c>
       <c r="O6" s="1">
-        <v>100000.0</v>
+        <v>4839200.0</v>
       </c>
       <c r="P6" s="1">
-        <v>200000.0</v>
+        <v>3441100.0</v>
       </c>
       <c r="Q6" s="1">
-        <v>300000.0</v>
+        <v>894300.0</v>
       </c>
       <c r="R6" s="3">
-        <v>3000.0</v>
+        <v>4830.0</v>
       </c>
       <c r="S6" s="1">
-        <v>2000.0</v>
+        <v>3440.0</v>
       </c>
       <c r="T6" s="1">
-        <v>1000.0</v>
+        <v>900.0</v>
       </c>
     </row>
     <row r="7">
@@ -494,49 +577,49 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="2">
-        <v>43564.5</v>
-      </c>
-      <c r="H7" s="2">
-        <v>43566.5</v>
+        <v>31</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="K7" s="1">
         <v>0.0</v>
       </c>
       <c r="L7" s="1">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="M7" s="1">
-        <v>1.0</v>
+        <v>50.0</v>
       </c>
       <c r="N7" s="1">
-        <v>0.0</v>
+        <v>140.0</v>
       </c>
       <c r="O7" s="1">
-        <v>100000.0</v>
+        <v>4839200.0</v>
       </c>
       <c r="P7" s="1">
-        <v>200000.0</v>
+        <v>3441100.0</v>
       </c>
       <c r="Q7" s="1">
-        <v>300000.0</v>
+        <v>894300.0</v>
       </c>
       <c r="R7" s="3">
-        <v>3000.0</v>
+        <v>4830.0</v>
       </c>
       <c r="S7" s="1">
-        <v>2000.0</v>
+        <v>3440.0</v>
       </c>
       <c r="T7" s="1">
-        <v>1000.0</v>
+        <v>900.0</v>
       </c>
     </row>
     <row r="8">
@@ -544,49 +627,49 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="2">
-        <v>43565.5</v>
-      </c>
-      <c r="H8" s="2">
-        <v>43567.5</v>
+        <v>36</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="K8" s="1">
         <v>0.0</v>
       </c>
       <c r="L8" s="1">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="M8" s="1">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="N8" s="1">
-        <v>1.0</v>
+        <v>140.0</v>
       </c>
       <c r="O8" s="1">
-        <v>100000.0</v>
+        <v>3456010.0</v>
       </c>
       <c r="P8" s="1">
-        <v>200000.0</v>
+        <v>1977300.0</v>
       </c>
       <c r="Q8" s="1">
-        <v>300000.0</v>
+        <v>648520.0</v>
       </c>
       <c r="R8" s="3">
-        <v>3000.0</v>
+        <v>3450.0</v>
       </c>
       <c r="S8" s="1">
-        <v>2000.0</v>
+        <v>1970.0</v>
       </c>
       <c r="T8" s="1">
-        <v>1000.0</v>
+        <v>650.0</v>
       </c>
     </row>
     <row r="9">
@@ -597,46 +680,46 @@
         <v>8.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="2">
-        <v>43566.5</v>
-      </c>
-      <c r="H9" s="2">
-        <v>43568.5</v>
+      <c r="G9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="K9" s="1">
         <v>0.0</v>
       </c>
       <c r="L9" s="1">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="M9" s="1">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="N9" s="1">
-        <v>1.0</v>
+        <v>140.0</v>
       </c>
       <c r="O9" s="1">
-        <v>100000.0</v>
+        <v>3456010.0</v>
       </c>
       <c r="P9" s="1">
-        <v>200000.0</v>
+        <v>1977300.0</v>
       </c>
       <c r="Q9" s="1">
-        <v>300000.0</v>
+        <v>648520.0</v>
       </c>
       <c r="R9" s="3">
-        <v>3000.0</v>
+        <v>3450.0</v>
       </c>
       <c r="S9" s="1">
-        <v>2000.0</v>
+        <v>1970.0</v>
       </c>
       <c r="T9" s="1">
-        <v>1000.0</v>
+        <v>650.0</v>
       </c>
     </row>
     <row r="10">
@@ -647,46 +730,46 @@
         <v>3.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="2">
-        <v>43567.5</v>
-      </c>
-      <c r="H10" s="2">
-        <v>43569.5</v>
+        <v>42</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="K10" s="1">
         <v>0.0</v>
       </c>
       <c r="L10" s="1">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="M10" s="1">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="N10" s="1">
-        <v>1.0</v>
+        <v>140.0</v>
       </c>
       <c r="O10" s="1">
-        <v>100000.0</v>
+        <v>150000.0</v>
       </c>
       <c r="P10" s="1">
-        <v>200000.0</v>
+        <v>98000.0</v>
       </c>
       <c r="Q10" s="1">
-        <v>300000.0</v>
+        <v>26000.0</v>
       </c>
       <c r="R10" s="3">
-        <v>3000.0</v>
+        <v>150.0</v>
       </c>
       <c r="S10" s="1">
-        <v>2000.0</v>
+        <v>98.0</v>
       </c>
       <c r="T10" s="1">
-        <v>1000.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="11">
@@ -694,55 +777,299 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="1">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="2">
-        <v>43568.5</v>
-      </c>
-      <c r="H11" s="2">
-        <v>43570.5</v>
-      </c>
-      <c r="I11" s="2">
-        <v>43569.416666666664</v>
+        <v>41</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="K11" s="1">
         <v>0.0</v>
       </c>
       <c r="L11" s="1">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="M11" s="1">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="N11" s="1">
-        <v>0.0</v>
+        <v>140.0</v>
       </c>
       <c r="O11" s="1">
-        <v>100000.0</v>
+        <v>150000.0</v>
       </c>
       <c r="P11" s="1">
-        <v>200000.0</v>
+        <v>98000.0</v>
       </c>
       <c r="Q11" s="1">
-        <v>300000.0</v>
+        <v>26000.0</v>
       </c>
       <c r="R11" s="3">
-        <v>3000.0</v>
+        <v>150.0</v>
       </c>
       <c r="S11" s="1">
-        <v>2000.0</v>
+        <v>98.0</v>
       </c>
       <c r="T11" s="1">
-        <v>1000.0</v>
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>140.0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>4839200.0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>3441100.0</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>894300.0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>4830.0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>3440.0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>900.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>140.0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>2468500.0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1856200.0</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>165100.0</v>
+      </c>
+      <c r="R13" s="1">
+        <v>2460.0</v>
+      </c>
+      <c r="S13" s="1">
+        <v>1850.0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>165.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>140.0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>2468500.0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1856200.0</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>165100.0</v>
+      </c>
+      <c r="R14" s="1">
+        <v>2460.0</v>
+      </c>
+      <c r="S14" s="1">
+        <v>1850.0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>165.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>140.0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1904500.0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1456950.0</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>126502.0</v>
+      </c>
+      <c r="R15" s="1">
+        <v>1900.0</v>
+      </c>
+      <c r="S15" s="1">
+        <v>1450.0</v>
+      </c>
+      <c r="T15" s="1">
+        <v>126.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>140.0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1904500.0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1456950.0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>126502.0</v>
+      </c>
+      <c r="R16" s="1">
+        <v>1900.0</v>
+      </c>
+      <c r="S16" s="1">
+        <v>1450.0</v>
+      </c>
+      <c r="T16" s="1">
+        <v>126.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/sql/import_excel/항공권 목록.xlsx
+++ b/src/main/webapp/sql/import_excel/항공권 목록.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="67">
   <si>
     <t>FSI_IDX</t>
   </si>
@@ -73,6 +73,9 @@
     <t>FSI_ECO_MIL</t>
   </si>
   <si>
+    <t>FSI_FLIGHT_TIME</t>
+  </si>
+  <si>
     <t>ICN</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
     <t>2019-04-29 11:00</t>
   </si>
   <si>
+    <t>02:30</t>
+  </si>
+  <si>
     <t>2019-04-30 11:00</t>
   </si>
   <si>
@@ -100,25 +106,34 @@
     <t>2019-05-01 15:00</t>
   </si>
   <si>
+    <t>00:45</t>
+  </si>
+  <si>
     <t>2019-05-03 19:10</t>
   </si>
   <si>
     <t>2019-05-03 20:50</t>
   </si>
   <si>
+    <t>01:40</t>
+  </si>
+  <si>
     <t>JFK</t>
   </si>
   <si>
     <t>2019-05-03 19:30</t>
   </si>
   <si>
-    <t>2019-05-04 21:00</t>
+    <t>2019-05-04 08:00</t>
+  </si>
+  <si>
+    <t>12:30</t>
   </si>
   <si>
     <t>2019-05-05 17:30</t>
   </si>
   <si>
-    <t>2019-05-06 19:00</t>
+    <t>2019-05-06 06:00</t>
   </si>
   <si>
     <t>SYD</t>
@@ -130,6 +145,9 @@
     <t>2019-05-06 06:15</t>
   </si>
   <si>
+    <t>11:35</t>
+  </si>
+  <si>
     <t>2019-05-14 18:30</t>
   </si>
   <si>
@@ -148,6 +166,9 @@
     <t>2019-05-03 19:55</t>
   </si>
   <si>
+    <t>01:10</t>
+  </si>
+  <si>
     <t>2019-05-05 18:45</t>
   </si>
   <si>
@@ -157,7 +178,7 @@
     <t>2019-05-10 17:30</t>
   </si>
   <si>
-    <t>2019-05-11 19:00</t>
+    <t>2019-05-11 06:00</t>
   </si>
   <si>
     <t>HAN</t>
@@ -182,6 +203,9 @@
   </si>
   <si>
     <t>2019-05-18 09:30</t>
+  </si>
+  <si>
+    <t>01:25</t>
   </si>
   <si>
     <t>2019-05-21 08:05</t>
@@ -219,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -232,6 +256,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -321,6 +346,9 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
@@ -330,16 +358,16 @@
         <v>1.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="1">
         <v>0.0</v>
@@ -370,6 +398,9 @@
       </c>
       <c r="T2" s="1">
         <v>78.0</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -380,16 +411,16 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K3" s="1">
         <v>0.0</v>
@@ -420,6 +451,9 @@
       </c>
       <c r="T3" s="1">
         <v>78.0</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -430,16 +464,16 @@
         <v>6.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K4" s="1">
         <v>0.0</v>
@@ -470,6 +504,9 @@
       </c>
       <c r="T4" s="1">
         <v>65.0</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -480,16 +517,16 @@
         <v>6.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K5" s="1">
         <v>0.0</v>
@@ -520,6 +557,9 @@
       </c>
       <c r="T5" s="1">
         <v>65.0</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -530,16 +570,16 @@
         <v>2.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K6" s="1">
         <v>0.0</v>
@@ -570,6 +610,9 @@
       </c>
       <c r="T6" s="1">
         <v>900.0</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7">
@@ -580,16 +623,16 @@
         <v>4.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K7" s="1">
         <v>0.0</v>
@@ -620,6 +663,9 @@
       </c>
       <c r="T7" s="1">
         <v>900.0</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8">
@@ -630,16 +676,16 @@
         <v>8.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K8" s="1">
         <v>0.0</v>
@@ -670,6 +716,9 @@
       </c>
       <c r="T8" s="1">
         <v>650.0</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9">
@@ -680,16 +729,16 @@
         <v>8.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K9" s="1">
         <v>0.0</v>
@@ -720,6 +769,9 @@
       </c>
       <c r="T9" s="1">
         <v>650.0</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10">
@@ -730,16 +782,16 @@
         <v>3.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K10" s="1">
         <v>0.0</v>
@@ -770,6 +822,9 @@
       </c>
       <c r="T10" s="1">
         <v>26.0</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11">
@@ -780,16 +835,16 @@
         <v>3.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K11" s="1">
         <v>0.0</v>
@@ -820,6 +875,9 @@
       </c>
       <c r="T11" s="1">
         <v>26.0</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="12">
@@ -830,16 +888,16 @@
         <v>9.0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="K12" s="1">
         <v>0.0</v>
@@ -870,6 +928,9 @@
       </c>
       <c r="T12" s="1">
         <v>900.0</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13">
@@ -880,16 +941,16 @@
         <v>10.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K13" s="1">
         <v>0.0</v>
@@ -920,6 +981,9 @@
       </c>
       <c r="T13" s="1">
         <v>165.0</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14">
@@ -930,16 +994,16 @@
         <v>10.0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K14" s="1">
         <v>0.0</v>
@@ -970,6 +1034,9 @@
       </c>
       <c r="T14" s="1">
         <v>165.0</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15">
@@ -980,16 +1047,16 @@
         <v>7.0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="K15" s="1">
         <v>0.0</v>
@@ -1020,6 +1087,9 @@
       </c>
       <c r="T15" s="1">
         <v>126.0</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="16">
@@ -1030,16 +1100,16 @@
         <v>7.0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="K16" s="1">
         <v>0.0</v>
@@ -1071,6 +1141,2961 @@
       <c r="T16" s="1">
         <v>126.0</v>
       </c>
+      <c r="U16" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="U17" s="4"/>
+    </row>
+    <row r="18">
+      <c r="U18" s="4"/>
+    </row>
+    <row r="19">
+      <c r="U19" s="4"/>
+    </row>
+    <row r="20">
+      <c r="U20" s="4"/>
+    </row>
+    <row r="21">
+      <c r="U21" s="4"/>
+    </row>
+    <row r="22">
+      <c r="U22" s="4"/>
+    </row>
+    <row r="23">
+      <c r="U23" s="4"/>
+    </row>
+    <row r="24">
+      <c r="U24" s="4"/>
+    </row>
+    <row r="25">
+      <c r="U25" s="4"/>
+    </row>
+    <row r="26">
+      <c r="U26" s="4"/>
+    </row>
+    <row r="27">
+      <c r="U27" s="4"/>
+    </row>
+    <row r="28">
+      <c r="U28" s="4"/>
+    </row>
+    <row r="29">
+      <c r="U29" s="4"/>
+    </row>
+    <row r="30">
+      <c r="U30" s="4"/>
+    </row>
+    <row r="31">
+      <c r="U31" s="4"/>
+    </row>
+    <row r="32">
+      <c r="U32" s="4"/>
+    </row>
+    <row r="33">
+      <c r="U33" s="4"/>
+    </row>
+    <row r="34">
+      <c r="U34" s="4"/>
+    </row>
+    <row r="35">
+      <c r="U35" s="4"/>
+    </row>
+    <row r="36">
+      <c r="U36" s="4"/>
+    </row>
+    <row r="37">
+      <c r="U37" s="4"/>
+    </row>
+    <row r="38">
+      <c r="U38" s="4"/>
+    </row>
+    <row r="39">
+      <c r="U39" s="4"/>
+    </row>
+    <row r="40">
+      <c r="U40" s="4"/>
+    </row>
+    <row r="41">
+      <c r="U41" s="4"/>
+    </row>
+    <row r="42">
+      <c r="U42" s="4"/>
+    </row>
+    <row r="43">
+      <c r="U43" s="4"/>
+    </row>
+    <row r="44">
+      <c r="U44" s="4"/>
+    </row>
+    <row r="45">
+      <c r="U45" s="4"/>
+    </row>
+    <row r="46">
+      <c r="U46" s="4"/>
+    </row>
+    <row r="47">
+      <c r="U47" s="4"/>
+    </row>
+    <row r="48">
+      <c r="U48" s="4"/>
+    </row>
+    <row r="49">
+      <c r="U49" s="4"/>
+    </row>
+    <row r="50">
+      <c r="U50" s="4"/>
+    </row>
+    <row r="51">
+      <c r="U51" s="4"/>
+    </row>
+    <row r="52">
+      <c r="U52" s="4"/>
+    </row>
+    <row r="53">
+      <c r="U53" s="4"/>
+    </row>
+    <row r="54">
+      <c r="U54" s="4"/>
+    </row>
+    <row r="55">
+      <c r="U55" s="4"/>
+    </row>
+    <row r="56">
+      <c r="U56" s="4"/>
+    </row>
+    <row r="57">
+      <c r="U57" s="4"/>
+    </row>
+    <row r="58">
+      <c r="U58" s="4"/>
+    </row>
+    <row r="59">
+      <c r="U59" s="4"/>
+    </row>
+    <row r="60">
+      <c r="U60" s="4"/>
+    </row>
+    <row r="61">
+      <c r="U61" s="4"/>
+    </row>
+    <row r="62">
+      <c r="U62" s="4"/>
+    </row>
+    <row r="63">
+      <c r="U63" s="4"/>
+    </row>
+    <row r="64">
+      <c r="U64" s="4"/>
+    </row>
+    <row r="65">
+      <c r="U65" s="4"/>
+    </row>
+    <row r="66">
+      <c r="U66" s="4"/>
+    </row>
+    <row r="67">
+      <c r="U67" s="4"/>
+    </row>
+    <row r="68">
+      <c r="U68" s="4"/>
+    </row>
+    <row r="69">
+      <c r="U69" s="4"/>
+    </row>
+    <row r="70">
+      <c r="U70" s="4"/>
+    </row>
+    <row r="71">
+      <c r="U71" s="4"/>
+    </row>
+    <row r="72">
+      <c r="U72" s="4"/>
+    </row>
+    <row r="73">
+      <c r="U73" s="4"/>
+    </row>
+    <row r="74">
+      <c r="U74" s="4"/>
+    </row>
+    <row r="75">
+      <c r="U75" s="4"/>
+    </row>
+    <row r="76">
+      <c r="U76" s="4"/>
+    </row>
+    <row r="77">
+      <c r="U77" s="4"/>
+    </row>
+    <row r="78">
+      <c r="U78" s="4"/>
+    </row>
+    <row r="79">
+      <c r="U79" s="4"/>
+    </row>
+    <row r="80">
+      <c r="U80" s="4"/>
+    </row>
+    <row r="81">
+      <c r="U81" s="4"/>
+    </row>
+    <row r="82">
+      <c r="U82" s="4"/>
+    </row>
+    <row r="83">
+      <c r="U83" s="4"/>
+    </row>
+    <row r="84">
+      <c r="U84" s="4"/>
+    </row>
+    <row r="85">
+      <c r="U85" s="4"/>
+    </row>
+    <row r="86">
+      <c r="U86" s="4"/>
+    </row>
+    <row r="87">
+      <c r="U87" s="4"/>
+    </row>
+    <row r="88">
+      <c r="U88" s="4"/>
+    </row>
+    <row r="89">
+      <c r="U89" s="4"/>
+    </row>
+    <row r="90">
+      <c r="U90" s="4"/>
+    </row>
+    <row r="91">
+      <c r="U91" s="4"/>
+    </row>
+    <row r="92">
+      <c r="U92" s="4"/>
+    </row>
+    <row r="93">
+      <c r="U93" s="4"/>
+    </row>
+    <row r="94">
+      <c r="U94" s="4"/>
+    </row>
+    <row r="95">
+      <c r="U95" s="4"/>
+    </row>
+    <row r="96">
+      <c r="U96" s="4"/>
+    </row>
+    <row r="97">
+      <c r="U97" s="4"/>
+    </row>
+    <row r="98">
+      <c r="U98" s="4"/>
+    </row>
+    <row r="99">
+      <c r="U99" s="4"/>
+    </row>
+    <row r="100">
+      <c r="U100" s="4"/>
+    </row>
+    <row r="101">
+      <c r="U101" s="4"/>
+    </row>
+    <row r="102">
+      <c r="U102" s="4"/>
+    </row>
+    <row r="103">
+      <c r="U103" s="4"/>
+    </row>
+    <row r="104">
+      <c r="U104" s="4"/>
+    </row>
+    <row r="105">
+      <c r="U105" s="4"/>
+    </row>
+    <row r="106">
+      <c r="U106" s="4"/>
+    </row>
+    <row r="107">
+      <c r="U107" s="4"/>
+    </row>
+    <row r="108">
+      <c r="U108" s="4"/>
+    </row>
+    <row r="109">
+      <c r="U109" s="4"/>
+    </row>
+    <row r="110">
+      <c r="U110" s="4"/>
+    </row>
+    <row r="111">
+      <c r="U111" s="4"/>
+    </row>
+    <row r="112">
+      <c r="U112" s="4"/>
+    </row>
+    <row r="113">
+      <c r="U113" s="4"/>
+    </row>
+    <row r="114">
+      <c r="U114" s="4"/>
+    </row>
+    <row r="115">
+      <c r="U115" s="4"/>
+    </row>
+    <row r="116">
+      <c r="U116" s="4"/>
+    </row>
+    <row r="117">
+      <c r="U117" s="4"/>
+    </row>
+    <row r="118">
+      <c r="U118" s="4"/>
+    </row>
+    <row r="119">
+      <c r="U119" s="4"/>
+    </row>
+    <row r="120">
+      <c r="U120" s="4"/>
+    </row>
+    <row r="121">
+      <c r="U121" s="4"/>
+    </row>
+    <row r="122">
+      <c r="U122" s="4"/>
+    </row>
+    <row r="123">
+      <c r="U123" s="4"/>
+    </row>
+    <row r="124">
+      <c r="U124" s="4"/>
+    </row>
+    <row r="125">
+      <c r="U125" s="4"/>
+    </row>
+    <row r="126">
+      <c r="U126" s="4"/>
+    </row>
+    <row r="127">
+      <c r="U127" s="4"/>
+    </row>
+    <row r="128">
+      <c r="U128" s="4"/>
+    </row>
+    <row r="129">
+      <c r="U129" s="4"/>
+    </row>
+    <row r="130">
+      <c r="U130" s="4"/>
+    </row>
+    <row r="131">
+      <c r="U131" s="4"/>
+    </row>
+    <row r="132">
+      <c r="U132" s="4"/>
+    </row>
+    <row r="133">
+      <c r="U133" s="4"/>
+    </row>
+    <row r="134">
+      <c r="U134" s="4"/>
+    </row>
+    <row r="135">
+      <c r="U135" s="4"/>
+    </row>
+    <row r="136">
+      <c r="U136" s="4"/>
+    </row>
+    <row r="137">
+      <c r="U137" s="4"/>
+    </row>
+    <row r="138">
+      <c r="U138" s="4"/>
+    </row>
+    <row r="139">
+      <c r="U139" s="4"/>
+    </row>
+    <row r="140">
+      <c r="U140" s="4"/>
+    </row>
+    <row r="141">
+      <c r="U141" s="4"/>
+    </row>
+    <row r="142">
+      <c r="U142" s="4"/>
+    </row>
+    <row r="143">
+      <c r="U143" s="4"/>
+    </row>
+    <row r="144">
+      <c r="U144" s="4"/>
+    </row>
+    <row r="145">
+      <c r="U145" s="4"/>
+    </row>
+    <row r="146">
+      <c r="U146" s="4"/>
+    </row>
+    <row r="147">
+      <c r="U147" s="4"/>
+    </row>
+    <row r="148">
+      <c r="U148" s="4"/>
+    </row>
+    <row r="149">
+      <c r="U149" s="4"/>
+    </row>
+    <row r="150">
+      <c r="U150" s="4"/>
+    </row>
+    <row r="151">
+      <c r="U151" s="4"/>
+    </row>
+    <row r="152">
+      <c r="U152" s="4"/>
+    </row>
+    <row r="153">
+      <c r="U153" s="4"/>
+    </row>
+    <row r="154">
+      <c r="U154" s="4"/>
+    </row>
+    <row r="155">
+      <c r="U155" s="4"/>
+    </row>
+    <row r="156">
+      <c r="U156" s="4"/>
+    </row>
+    <row r="157">
+      <c r="U157" s="4"/>
+    </row>
+    <row r="158">
+      <c r="U158" s="4"/>
+    </row>
+    <row r="159">
+      <c r="U159" s="4"/>
+    </row>
+    <row r="160">
+      <c r="U160" s="4"/>
+    </row>
+    <row r="161">
+      <c r="U161" s="4"/>
+    </row>
+    <row r="162">
+      <c r="U162" s="4"/>
+    </row>
+    <row r="163">
+      <c r="U163" s="4"/>
+    </row>
+    <row r="164">
+      <c r="U164" s="4"/>
+    </row>
+    <row r="165">
+      <c r="U165" s="4"/>
+    </row>
+    <row r="166">
+      <c r="U166" s="4"/>
+    </row>
+    <row r="167">
+      <c r="U167" s="4"/>
+    </row>
+    <row r="168">
+      <c r="U168" s="4"/>
+    </row>
+    <row r="169">
+      <c r="U169" s="4"/>
+    </row>
+    <row r="170">
+      <c r="U170" s="4"/>
+    </row>
+    <row r="171">
+      <c r="U171" s="4"/>
+    </row>
+    <row r="172">
+      <c r="U172" s="4"/>
+    </row>
+    <row r="173">
+      <c r="U173" s="4"/>
+    </row>
+    <row r="174">
+      <c r="U174" s="4"/>
+    </row>
+    <row r="175">
+      <c r="U175" s="4"/>
+    </row>
+    <row r="176">
+      <c r="U176" s="4"/>
+    </row>
+    <row r="177">
+      <c r="U177" s="4"/>
+    </row>
+    <row r="178">
+      <c r="U178" s="4"/>
+    </row>
+    <row r="179">
+      <c r="U179" s="4"/>
+    </row>
+    <row r="180">
+      <c r="U180" s="4"/>
+    </row>
+    <row r="181">
+      <c r="U181" s="4"/>
+    </row>
+    <row r="182">
+      <c r="U182" s="4"/>
+    </row>
+    <row r="183">
+      <c r="U183" s="4"/>
+    </row>
+    <row r="184">
+      <c r="U184" s="4"/>
+    </row>
+    <row r="185">
+      <c r="U185" s="4"/>
+    </row>
+    <row r="186">
+      <c r="U186" s="4"/>
+    </row>
+    <row r="187">
+      <c r="U187" s="4"/>
+    </row>
+    <row r="188">
+      <c r="U188" s="4"/>
+    </row>
+    <row r="189">
+      <c r="U189" s="4"/>
+    </row>
+    <row r="190">
+      <c r="U190" s="4"/>
+    </row>
+    <row r="191">
+      <c r="U191" s="4"/>
+    </row>
+    <row r="192">
+      <c r="U192" s="4"/>
+    </row>
+    <row r="193">
+      <c r="U193" s="4"/>
+    </row>
+    <row r="194">
+      <c r="U194" s="4"/>
+    </row>
+    <row r="195">
+      <c r="U195" s="4"/>
+    </row>
+    <row r="196">
+      <c r="U196" s="4"/>
+    </row>
+    <row r="197">
+      <c r="U197" s="4"/>
+    </row>
+    <row r="198">
+      <c r="U198" s="4"/>
+    </row>
+    <row r="199">
+      <c r="U199" s="4"/>
+    </row>
+    <row r="200">
+      <c r="U200" s="4"/>
+    </row>
+    <row r="201">
+      <c r="U201" s="4"/>
+    </row>
+    <row r="202">
+      <c r="U202" s="4"/>
+    </row>
+    <row r="203">
+      <c r="U203" s="4"/>
+    </row>
+    <row r="204">
+      <c r="U204" s="4"/>
+    </row>
+    <row r="205">
+      <c r="U205" s="4"/>
+    </row>
+    <row r="206">
+      <c r="U206" s="4"/>
+    </row>
+    <row r="207">
+      <c r="U207" s="4"/>
+    </row>
+    <row r="208">
+      <c r="U208" s="4"/>
+    </row>
+    <row r="209">
+      <c r="U209" s="4"/>
+    </row>
+    <row r="210">
+      <c r="U210" s="4"/>
+    </row>
+    <row r="211">
+      <c r="U211" s="4"/>
+    </row>
+    <row r="212">
+      <c r="U212" s="4"/>
+    </row>
+    <row r="213">
+      <c r="U213" s="4"/>
+    </row>
+    <row r="214">
+      <c r="U214" s="4"/>
+    </row>
+    <row r="215">
+      <c r="U215" s="4"/>
+    </row>
+    <row r="216">
+      <c r="U216" s="4"/>
+    </row>
+    <row r="217">
+      <c r="U217" s="4"/>
+    </row>
+    <row r="218">
+      <c r="U218" s="4"/>
+    </row>
+    <row r="219">
+      <c r="U219" s="4"/>
+    </row>
+    <row r="220">
+      <c r="U220" s="4"/>
+    </row>
+    <row r="221">
+      <c r="U221" s="4"/>
+    </row>
+    <row r="222">
+      <c r="U222" s="4"/>
+    </row>
+    <row r="223">
+      <c r="U223" s="4"/>
+    </row>
+    <row r="224">
+      <c r="U224" s="4"/>
+    </row>
+    <row r="225">
+      <c r="U225" s="4"/>
+    </row>
+    <row r="226">
+      <c r="U226" s="4"/>
+    </row>
+    <row r="227">
+      <c r="U227" s="4"/>
+    </row>
+    <row r="228">
+      <c r="U228" s="4"/>
+    </row>
+    <row r="229">
+      <c r="U229" s="4"/>
+    </row>
+    <row r="230">
+      <c r="U230" s="4"/>
+    </row>
+    <row r="231">
+      <c r="U231" s="4"/>
+    </row>
+    <row r="232">
+      <c r="U232" s="4"/>
+    </row>
+    <row r="233">
+      <c r="U233" s="4"/>
+    </row>
+    <row r="234">
+      <c r="U234" s="4"/>
+    </row>
+    <row r="235">
+      <c r="U235" s="4"/>
+    </row>
+    <row r="236">
+      <c r="U236" s="4"/>
+    </row>
+    <row r="237">
+      <c r="U237" s="4"/>
+    </row>
+    <row r="238">
+      <c r="U238" s="4"/>
+    </row>
+    <row r="239">
+      <c r="U239" s="4"/>
+    </row>
+    <row r="240">
+      <c r="U240" s="4"/>
+    </row>
+    <row r="241">
+      <c r="U241" s="4"/>
+    </row>
+    <row r="242">
+      <c r="U242" s="4"/>
+    </row>
+    <row r="243">
+      <c r="U243" s="4"/>
+    </row>
+    <row r="244">
+      <c r="U244" s="4"/>
+    </row>
+    <row r="245">
+      <c r="U245" s="4"/>
+    </row>
+    <row r="246">
+      <c r="U246" s="4"/>
+    </row>
+    <row r="247">
+      <c r="U247" s="4"/>
+    </row>
+    <row r="248">
+      <c r="U248" s="4"/>
+    </row>
+    <row r="249">
+      <c r="U249" s="4"/>
+    </row>
+    <row r="250">
+      <c r="U250" s="4"/>
+    </row>
+    <row r="251">
+      <c r="U251" s="4"/>
+    </row>
+    <row r="252">
+      <c r="U252" s="4"/>
+    </row>
+    <row r="253">
+      <c r="U253" s="4"/>
+    </row>
+    <row r="254">
+      <c r="U254" s="4"/>
+    </row>
+    <row r="255">
+      <c r="U255" s="4"/>
+    </row>
+    <row r="256">
+      <c r="U256" s="4"/>
+    </row>
+    <row r="257">
+      <c r="U257" s="4"/>
+    </row>
+    <row r="258">
+      <c r="U258" s="4"/>
+    </row>
+    <row r="259">
+      <c r="U259" s="4"/>
+    </row>
+    <row r="260">
+      <c r="U260" s="4"/>
+    </row>
+    <row r="261">
+      <c r="U261" s="4"/>
+    </row>
+    <row r="262">
+      <c r="U262" s="4"/>
+    </row>
+    <row r="263">
+      <c r="U263" s="4"/>
+    </row>
+    <row r="264">
+      <c r="U264" s="4"/>
+    </row>
+    <row r="265">
+      <c r="U265" s="4"/>
+    </row>
+    <row r="266">
+      <c r="U266" s="4"/>
+    </row>
+    <row r="267">
+      <c r="U267" s="4"/>
+    </row>
+    <row r="268">
+      <c r="U268" s="4"/>
+    </row>
+    <row r="269">
+      <c r="U269" s="4"/>
+    </row>
+    <row r="270">
+      <c r="U270" s="4"/>
+    </row>
+    <row r="271">
+      <c r="U271" s="4"/>
+    </row>
+    <row r="272">
+      <c r="U272" s="4"/>
+    </row>
+    <row r="273">
+      <c r="U273" s="4"/>
+    </row>
+    <row r="274">
+      <c r="U274" s="4"/>
+    </row>
+    <row r="275">
+      <c r="U275" s="4"/>
+    </row>
+    <row r="276">
+      <c r="U276" s="4"/>
+    </row>
+    <row r="277">
+      <c r="U277" s="4"/>
+    </row>
+    <row r="278">
+      <c r="U278" s="4"/>
+    </row>
+    <row r="279">
+      <c r="U279" s="4"/>
+    </row>
+    <row r="280">
+      <c r="U280" s="4"/>
+    </row>
+    <row r="281">
+      <c r="U281" s="4"/>
+    </row>
+    <row r="282">
+      <c r="U282" s="4"/>
+    </row>
+    <row r="283">
+      <c r="U283" s="4"/>
+    </row>
+    <row r="284">
+      <c r="U284" s="4"/>
+    </row>
+    <row r="285">
+      <c r="U285" s="4"/>
+    </row>
+    <row r="286">
+      <c r="U286" s="4"/>
+    </row>
+    <row r="287">
+      <c r="U287" s="4"/>
+    </row>
+    <row r="288">
+      <c r="U288" s="4"/>
+    </row>
+    <row r="289">
+      <c r="U289" s="4"/>
+    </row>
+    <row r="290">
+      <c r="U290" s="4"/>
+    </row>
+    <row r="291">
+      <c r="U291" s="4"/>
+    </row>
+    <row r="292">
+      <c r="U292" s="4"/>
+    </row>
+    <row r="293">
+      <c r="U293" s="4"/>
+    </row>
+    <row r="294">
+      <c r="U294" s="4"/>
+    </row>
+    <row r="295">
+      <c r="U295" s="4"/>
+    </row>
+    <row r="296">
+      <c r="U296" s="4"/>
+    </row>
+    <row r="297">
+      <c r="U297" s="4"/>
+    </row>
+    <row r="298">
+      <c r="U298" s="4"/>
+    </row>
+    <row r="299">
+      <c r="U299" s="4"/>
+    </row>
+    <row r="300">
+      <c r="U300" s="4"/>
+    </row>
+    <row r="301">
+      <c r="U301" s="4"/>
+    </row>
+    <row r="302">
+      <c r="U302" s="4"/>
+    </row>
+    <row r="303">
+      <c r="U303" s="4"/>
+    </row>
+    <row r="304">
+      <c r="U304" s="4"/>
+    </row>
+    <row r="305">
+      <c r="U305" s="4"/>
+    </row>
+    <row r="306">
+      <c r="U306" s="4"/>
+    </row>
+    <row r="307">
+      <c r="U307" s="4"/>
+    </row>
+    <row r="308">
+      <c r="U308" s="4"/>
+    </row>
+    <row r="309">
+      <c r="U309" s="4"/>
+    </row>
+    <row r="310">
+      <c r="U310" s="4"/>
+    </row>
+    <row r="311">
+      <c r="U311" s="4"/>
+    </row>
+    <row r="312">
+      <c r="U312" s="4"/>
+    </row>
+    <row r="313">
+      <c r="U313" s="4"/>
+    </row>
+    <row r="314">
+      <c r="U314" s="4"/>
+    </row>
+    <row r="315">
+      <c r="U315" s="4"/>
+    </row>
+    <row r="316">
+      <c r="U316" s="4"/>
+    </row>
+    <row r="317">
+      <c r="U317" s="4"/>
+    </row>
+    <row r="318">
+      <c r="U318" s="4"/>
+    </row>
+    <row r="319">
+      <c r="U319" s="4"/>
+    </row>
+    <row r="320">
+      <c r="U320" s="4"/>
+    </row>
+    <row r="321">
+      <c r="U321" s="4"/>
+    </row>
+    <row r="322">
+      <c r="U322" s="4"/>
+    </row>
+    <row r="323">
+      <c r="U323" s="4"/>
+    </row>
+    <row r="324">
+      <c r="U324" s="4"/>
+    </row>
+    <row r="325">
+      <c r="U325" s="4"/>
+    </row>
+    <row r="326">
+      <c r="U326" s="4"/>
+    </row>
+    <row r="327">
+      <c r="U327" s="4"/>
+    </row>
+    <row r="328">
+      <c r="U328" s="4"/>
+    </row>
+    <row r="329">
+      <c r="U329" s="4"/>
+    </row>
+    <row r="330">
+      <c r="U330" s="4"/>
+    </row>
+    <row r="331">
+      <c r="U331" s="4"/>
+    </row>
+    <row r="332">
+      <c r="U332" s="4"/>
+    </row>
+    <row r="333">
+      <c r="U333" s="4"/>
+    </row>
+    <row r="334">
+      <c r="U334" s="4"/>
+    </row>
+    <row r="335">
+      <c r="U335" s="4"/>
+    </row>
+    <row r="336">
+      <c r="U336" s="4"/>
+    </row>
+    <row r="337">
+      <c r="U337" s="4"/>
+    </row>
+    <row r="338">
+      <c r="U338" s="4"/>
+    </row>
+    <row r="339">
+      <c r="U339" s="4"/>
+    </row>
+    <row r="340">
+      <c r="U340" s="4"/>
+    </row>
+    <row r="341">
+      <c r="U341" s="4"/>
+    </row>
+    <row r="342">
+      <c r="U342" s="4"/>
+    </row>
+    <row r="343">
+      <c r="U343" s="4"/>
+    </row>
+    <row r="344">
+      <c r="U344" s="4"/>
+    </row>
+    <row r="345">
+      <c r="U345" s="4"/>
+    </row>
+    <row r="346">
+      <c r="U346" s="4"/>
+    </row>
+    <row r="347">
+      <c r="U347" s="4"/>
+    </row>
+    <row r="348">
+      <c r="U348" s="4"/>
+    </row>
+    <row r="349">
+      <c r="U349" s="4"/>
+    </row>
+    <row r="350">
+      <c r="U350" s="4"/>
+    </row>
+    <row r="351">
+      <c r="U351" s="4"/>
+    </row>
+    <row r="352">
+      <c r="U352" s="4"/>
+    </row>
+    <row r="353">
+      <c r="U353" s="4"/>
+    </row>
+    <row r="354">
+      <c r="U354" s="4"/>
+    </row>
+    <row r="355">
+      <c r="U355" s="4"/>
+    </row>
+    <row r="356">
+      <c r="U356" s="4"/>
+    </row>
+    <row r="357">
+      <c r="U357" s="4"/>
+    </row>
+    <row r="358">
+      <c r="U358" s="4"/>
+    </row>
+    <row r="359">
+      <c r="U359" s="4"/>
+    </row>
+    <row r="360">
+      <c r="U360" s="4"/>
+    </row>
+    <row r="361">
+      <c r="U361" s="4"/>
+    </row>
+    <row r="362">
+      <c r="U362" s="4"/>
+    </row>
+    <row r="363">
+      <c r="U363" s="4"/>
+    </row>
+    <row r="364">
+      <c r="U364" s="4"/>
+    </row>
+    <row r="365">
+      <c r="U365" s="4"/>
+    </row>
+    <row r="366">
+      <c r="U366" s="4"/>
+    </row>
+    <row r="367">
+      <c r="U367" s="4"/>
+    </row>
+    <row r="368">
+      <c r="U368" s="4"/>
+    </row>
+    <row r="369">
+      <c r="U369" s="4"/>
+    </row>
+    <row r="370">
+      <c r="U370" s="4"/>
+    </row>
+    <row r="371">
+      <c r="U371" s="4"/>
+    </row>
+    <row r="372">
+      <c r="U372" s="4"/>
+    </row>
+    <row r="373">
+      <c r="U373" s="4"/>
+    </row>
+    <row r="374">
+      <c r="U374" s="4"/>
+    </row>
+    <row r="375">
+      <c r="U375" s="4"/>
+    </row>
+    <row r="376">
+      <c r="U376" s="4"/>
+    </row>
+    <row r="377">
+      <c r="U377" s="4"/>
+    </row>
+    <row r="378">
+      <c r="U378" s="4"/>
+    </row>
+    <row r="379">
+      <c r="U379" s="4"/>
+    </row>
+    <row r="380">
+      <c r="U380" s="4"/>
+    </row>
+    <row r="381">
+      <c r="U381" s="4"/>
+    </row>
+    <row r="382">
+      <c r="U382" s="4"/>
+    </row>
+    <row r="383">
+      <c r="U383" s="4"/>
+    </row>
+    <row r="384">
+      <c r="U384" s="4"/>
+    </row>
+    <row r="385">
+      <c r="U385" s="4"/>
+    </row>
+    <row r="386">
+      <c r="U386" s="4"/>
+    </row>
+    <row r="387">
+      <c r="U387" s="4"/>
+    </row>
+    <row r="388">
+      <c r="U388" s="4"/>
+    </row>
+    <row r="389">
+      <c r="U389" s="4"/>
+    </row>
+    <row r="390">
+      <c r="U390" s="4"/>
+    </row>
+    <row r="391">
+      <c r="U391" s="4"/>
+    </row>
+    <row r="392">
+      <c r="U392" s="4"/>
+    </row>
+    <row r="393">
+      <c r="U393" s="4"/>
+    </row>
+    <row r="394">
+      <c r="U394" s="4"/>
+    </row>
+    <row r="395">
+      <c r="U395" s="4"/>
+    </row>
+    <row r="396">
+      <c r="U396" s="4"/>
+    </row>
+    <row r="397">
+      <c r="U397" s="4"/>
+    </row>
+    <row r="398">
+      <c r="U398" s="4"/>
+    </row>
+    <row r="399">
+      <c r="U399" s="4"/>
+    </row>
+    <row r="400">
+      <c r="U400" s="4"/>
+    </row>
+    <row r="401">
+      <c r="U401" s="4"/>
+    </row>
+    <row r="402">
+      <c r="U402" s="4"/>
+    </row>
+    <row r="403">
+      <c r="U403" s="4"/>
+    </row>
+    <row r="404">
+      <c r="U404" s="4"/>
+    </row>
+    <row r="405">
+      <c r="U405" s="4"/>
+    </row>
+    <row r="406">
+      <c r="U406" s="4"/>
+    </row>
+    <row r="407">
+      <c r="U407" s="4"/>
+    </row>
+    <row r="408">
+      <c r="U408" s="4"/>
+    </row>
+    <row r="409">
+      <c r="U409" s="4"/>
+    </row>
+    <row r="410">
+      <c r="U410" s="4"/>
+    </row>
+    <row r="411">
+      <c r="U411" s="4"/>
+    </row>
+    <row r="412">
+      <c r="U412" s="4"/>
+    </row>
+    <row r="413">
+      <c r="U413" s="4"/>
+    </row>
+    <row r="414">
+      <c r="U414" s="4"/>
+    </row>
+    <row r="415">
+      <c r="U415" s="4"/>
+    </row>
+    <row r="416">
+      <c r="U416" s="4"/>
+    </row>
+    <row r="417">
+      <c r="U417" s="4"/>
+    </row>
+    <row r="418">
+      <c r="U418" s="4"/>
+    </row>
+    <row r="419">
+      <c r="U419" s="4"/>
+    </row>
+    <row r="420">
+      <c r="U420" s="4"/>
+    </row>
+    <row r="421">
+      <c r="U421" s="4"/>
+    </row>
+    <row r="422">
+      <c r="U422" s="4"/>
+    </row>
+    <row r="423">
+      <c r="U423" s="4"/>
+    </row>
+    <row r="424">
+      <c r="U424" s="4"/>
+    </row>
+    <row r="425">
+      <c r="U425" s="4"/>
+    </row>
+    <row r="426">
+      <c r="U426" s="4"/>
+    </row>
+    <row r="427">
+      <c r="U427" s="4"/>
+    </row>
+    <row r="428">
+      <c r="U428" s="4"/>
+    </row>
+    <row r="429">
+      <c r="U429" s="4"/>
+    </row>
+    <row r="430">
+      <c r="U430" s="4"/>
+    </row>
+    <row r="431">
+      <c r="U431" s="4"/>
+    </row>
+    <row r="432">
+      <c r="U432" s="4"/>
+    </row>
+    <row r="433">
+      <c r="U433" s="4"/>
+    </row>
+    <row r="434">
+      <c r="U434" s="4"/>
+    </row>
+    <row r="435">
+      <c r="U435" s="4"/>
+    </row>
+    <row r="436">
+      <c r="U436" s="4"/>
+    </row>
+    <row r="437">
+      <c r="U437" s="4"/>
+    </row>
+    <row r="438">
+      <c r="U438" s="4"/>
+    </row>
+    <row r="439">
+      <c r="U439" s="4"/>
+    </row>
+    <row r="440">
+      <c r="U440" s="4"/>
+    </row>
+    <row r="441">
+      <c r="U441" s="4"/>
+    </row>
+    <row r="442">
+      <c r="U442" s="4"/>
+    </row>
+    <row r="443">
+      <c r="U443" s="4"/>
+    </row>
+    <row r="444">
+      <c r="U444" s="4"/>
+    </row>
+    <row r="445">
+      <c r="U445" s="4"/>
+    </row>
+    <row r="446">
+      <c r="U446" s="4"/>
+    </row>
+    <row r="447">
+      <c r="U447" s="4"/>
+    </row>
+    <row r="448">
+      <c r="U448" s="4"/>
+    </row>
+    <row r="449">
+      <c r="U449" s="4"/>
+    </row>
+    <row r="450">
+      <c r="U450" s="4"/>
+    </row>
+    <row r="451">
+      <c r="U451" s="4"/>
+    </row>
+    <row r="452">
+      <c r="U452" s="4"/>
+    </row>
+    <row r="453">
+      <c r="U453" s="4"/>
+    </row>
+    <row r="454">
+      <c r="U454" s="4"/>
+    </row>
+    <row r="455">
+      <c r="U455" s="4"/>
+    </row>
+    <row r="456">
+      <c r="U456" s="4"/>
+    </row>
+    <row r="457">
+      <c r="U457" s="4"/>
+    </row>
+    <row r="458">
+      <c r="U458" s="4"/>
+    </row>
+    <row r="459">
+      <c r="U459" s="4"/>
+    </row>
+    <row r="460">
+      <c r="U460" s="4"/>
+    </row>
+    <row r="461">
+      <c r="U461" s="4"/>
+    </row>
+    <row r="462">
+      <c r="U462" s="4"/>
+    </row>
+    <row r="463">
+      <c r="U463" s="4"/>
+    </row>
+    <row r="464">
+      <c r="U464" s="4"/>
+    </row>
+    <row r="465">
+      <c r="U465" s="4"/>
+    </row>
+    <row r="466">
+      <c r="U466" s="4"/>
+    </row>
+    <row r="467">
+      <c r="U467" s="4"/>
+    </row>
+    <row r="468">
+      <c r="U468" s="4"/>
+    </row>
+    <row r="469">
+      <c r="U469" s="4"/>
+    </row>
+    <row r="470">
+      <c r="U470" s="4"/>
+    </row>
+    <row r="471">
+      <c r="U471" s="4"/>
+    </row>
+    <row r="472">
+      <c r="U472" s="4"/>
+    </row>
+    <row r="473">
+      <c r="U473" s="4"/>
+    </row>
+    <row r="474">
+      <c r="U474" s="4"/>
+    </row>
+    <row r="475">
+      <c r="U475" s="4"/>
+    </row>
+    <row r="476">
+      <c r="U476" s="4"/>
+    </row>
+    <row r="477">
+      <c r="U477" s="4"/>
+    </row>
+    <row r="478">
+      <c r="U478" s="4"/>
+    </row>
+    <row r="479">
+      <c r="U479" s="4"/>
+    </row>
+    <row r="480">
+      <c r="U480" s="4"/>
+    </row>
+    <row r="481">
+      <c r="U481" s="4"/>
+    </row>
+    <row r="482">
+      <c r="U482" s="4"/>
+    </row>
+    <row r="483">
+      <c r="U483" s="4"/>
+    </row>
+    <row r="484">
+      <c r="U484" s="4"/>
+    </row>
+    <row r="485">
+      <c r="U485" s="4"/>
+    </row>
+    <row r="486">
+      <c r="U486" s="4"/>
+    </row>
+    <row r="487">
+      <c r="U487" s="4"/>
+    </row>
+    <row r="488">
+      <c r="U488" s="4"/>
+    </row>
+    <row r="489">
+      <c r="U489" s="4"/>
+    </row>
+    <row r="490">
+      <c r="U490" s="4"/>
+    </row>
+    <row r="491">
+      <c r="U491" s="4"/>
+    </row>
+    <row r="492">
+      <c r="U492" s="4"/>
+    </row>
+    <row r="493">
+      <c r="U493" s="4"/>
+    </row>
+    <row r="494">
+      <c r="U494" s="4"/>
+    </row>
+    <row r="495">
+      <c r="U495" s="4"/>
+    </row>
+    <row r="496">
+      <c r="U496" s="4"/>
+    </row>
+    <row r="497">
+      <c r="U497" s="4"/>
+    </row>
+    <row r="498">
+      <c r="U498" s="4"/>
+    </row>
+    <row r="499">
+      <c r="U499" s="4"/>
+    </row>
+    <row r="500">
+      <c r="U500" s="4"/>
+    </row>
+    <row r="501">
+      <c r="U501" s="4"/>
+    </row>
+    <row r="502">
+      <c r="U502" s="4"/>
+    </row>
+    <row r="503">
+      <c r="U503" s="4"/>
+    </row>
+    <row r="504">
+      <c r="U504" s="4"/>
+    </row>
+    <row r="505">
+      <c r="U505" s="4"/>
+    </row>
+    <row r="506">
+      <c r="U506" s="4"/>
+    </row>
+    <row r="507">
+      <c r="U507" s="4"/>
+    </row>
+    <row r="508">
+      <c r="U508" s="4"/>
+    </row>
+    <row r="509">
+      <c r="U509" s="4"/>
+    </row>
+    <row r="510">
+      <c r="U510" s="4"/>
+    </row>
+    <row r="511">
+      <c r="U511" s="4"/>
+    </row>
+    <row r="512">
+      <c r="U512" s="4"/>
+    </row>
+    <row r="513">
+      <c r="U513" s="4"/>
+    </row>
+    <row r="514">
+      <c r="U514" s="4"/>
+    </row>
+    <row r="515">
+      <c r="U515" s="4"/>
+    </row>
+    <row r="516">
+      <c r="U516" s="4"/>
+    </row>
+    <row r="517">
+      <c r="U517" s="4"/>
+    </row>
+    <row r="518">
+      <c r="U518" s="4"/>
+    </row>
+    <row r="519">
+      <c r="U519" s="4"/>
+    </row>
+    <row r="520">
+      <c r="U520" s="4"/>
+    </row>
+    <row r="521">
+      <c r="U521" s="4"/>
+    </row>
+    <row r="522">
+      <c r="U522" s="4"/>
+    </row>
+    <row r="523">
+      <c r="U523" s="4"/>
+    </row>
+    <row r="524">
+      <c r="U524" s="4"/>
+    </row>
+    <row r="525">
+      <c r="U525" s="4"/>
+    </row>
+    <row r="526">
+      <c r="U526" s="4"/>
+    </row>
+    <row r="527">
+      <c r="U527" s="4"/>
+    </row>
+    <row r="528">
+      <c r="U528" s="4"/>
+    </row>
+    <row r="529">
+      <c r="U529" s="4"/>
+    </row>
+    <row r="530">
+      <c r="U530" s="4"/>
+    </row>
+    <row r="531">
+      <c r="U531" s="4"/>
+    </row>
+    <row r="532">
+      <c r="U532" s="4"/>
+    </row>
+    <row r="533">
+      <c r="U533" s="4"/>
+    </row>
+    <row r="534">
+      <c r="U534" s="4"/>
+    </row>
+    <row r="535">
+      <c r="U535" s="4"/>
+    </row>
+    <row r="536">
+      <c r="U536" s="4"/>
+    </row>
+    <row r="537">
+      <c r="U537" s="4"/>
+    </row>
+    <row r="538">
+      <c r="U538" s="4"/>
+    </row>
+    <row r="539">
+      <c r="U539" s="4"/>
+    </row>
+    <row r="540">
+      <c r="U540" s="4"/>
+    </row>
+    <row r="541">
+      <c r="U541" s="4"/>
+    </row>
+    <row r="542">
+      <c r="U542" s="4"/>
+    </row>
+    <row r="543">
+      <c r="U543" s="4"/>
+    </row>
+    <row r="544">
+      <c r="U544" s="4"/>
+    </row>
+    <row r="545">
+      <c r="U545" s="4"/>
+    </row>
+    <row r="546">
+      <c r="U546" s="4"/>
+    </row>
+    <row r="547">
+      <c r="U547" s="4"/>
+    </row>
+    <row r="548">
+      <c r="U548" s="4"/>
+    </row>
+    <row r="549">
+      <c r="U549" s="4"/>
+    </row>
+    <row r="550">
+      <c r="U550" s="4"/>
+    </row>
+    <row r="551">
+      <c r="U551" s="4"/>
+    </row>
+    <row r="552">
+      <c r="U552" s="4"/>
+    </row>
+    <row r="553">
+      <c r="U553" s="4"/>
+    </row>
+    <row r="554">
+      <c r="U554" s="4"/>
+    </row>
+    <row r="555">
+      <c r="U555" s="4"/>
+    </row>
+    <row r="556">
+      <c r="U556" s="4"/>
+    </row>
+    <row r="557">
+      <c r="U557" s="4"/>
+    </row>
+    <row r="558">
+      <c r="U558" s="4"/>
+    </row>
+    <row r="559">
+      <c r="U559" s="4"/>
+    </row>
+    <row r="560">
+      <c r="U560" s="4"/>
+    </row>
+    <row r="561">
+      <c r="U561" s="4"/>
+    </row>
+    <row r="562">
+      <c r="U562" s="4"/>
+    </row>
+    <row r="563">
+      <c r="U563" s="4"/>
+    </row>
+    <row r="564">
+      <c r="U564" s="4"/>
+    </row>
+    <row r="565">
+      <c r="U565" s="4"/>
+    </row>
+    <row r="566">
+      <c r="U566" s="4"/>
+    </row>
+    <row r="567">
+      <c r="U567" s="4"/>
+    </row>
+    <row r="568">
+      <c r="U568" s="4"/>
+    </row>
+    <row r="569">
+      <c r="U569" s="4"/>
+    </row>
+    <row r="570">
+      <c r="U570" s="4"/>
+    </row>
+    <row r="571">
+      <c r="U571" s="4"/>
+    </row>
+    <row r="572">
+      <c r="U572" s="4"/>
+    </row>
+    <row r="573">
+      <c r="U573" s="4"/>
+    </row>
+    <row r="574">
+      <c r="U574" s="4"/>
+    </row>
+    <row r="575">
+      <c r="U575" s="4"/>
+    </row>
+    <row r="576">
+      <c r="U576" s="4"/>
+    </row>
+    <row r="577">
+      <c r="U577" s="4"/>
+    </row>
+    <row r="578">
+      <c r="U578" s="4"/>
+    </row>
+    <row r="579">
+      <c r="U579" s="4"/>
+    </row>
+    <row r="580">
+      <c r="U580" s="4"/>
+    </row>
+    <row r="581">
+      <c r="U581" s="4"/>
+    </row>
+    <row r="582">
+      <c r="U582" s="4"/>
+    </row>
+    <row r="583">
+      <c r="U583" s="4"/>
+    </row>
+    <row r="584">
+      <c r="U584" s="4"/>
+    </row>
+    <row r="585">
+      <c r="U585" s="4"/>
+    </row>
+    <row r="586">
+      <c r="U586" s="4"/>
+    </row>
+    <row r="587">
+      <c r="U587" s="4"/>
+    </row>
+    <row r="588">
+      <c r="U588" s="4"/>
+    </row>
+    <row r="589">
+      <c r="U589" s="4"/>
+    </row>
+    <row r="590">
+      <c r="U590" s="4"/>
+    </row>
+    <row r="591">
+      <c r="U591" s="4"/>
+    </row>
+    <row r="592">
+      <c r="U592" s="4"/>
+    </row>
+    <row r="593">
+      <c r="U593" s="4"/>
+    </row>
+    <row r="594">
+      <c r="U594" s="4"/>
+    </row>
+    <row r="595">
+      <c r="U595" s="4"/>
+    </row>
+    <row r="596">
+      <c r="U596" s="4"/>
+    </row>
+    <row r="597">
+      <c r="U597" s="4"/>
+    </row>
+    <row r="598">
+      <c r="U598" s="4"/>
+    </row>
+    <row r="599">
+      <c r="U599" s="4"/>
+    </row>
+    <row r="600">
+      <c r="U600" s="4"/>
+    </row>
+    <row r="601">
+      <c r="U601" s="4"/>
+    </row>
+    <row r="602">
+      <c r="U602" s="4"/>
+    </row>
+    <row r="603">
+      <c r="U603" s="4"/>
+    </row>
+    <row r="604">
+      <c r="U604" s="4"/>
+    </row>
+    <row r="605">
+      <c r="U605" s="4"/>
+    </row>
+    <row r="606">
+      <c r="U606" s="4"/>
+    </row>
+    <row r="607">
+      <c r="U607" s="4"/>
+    </row>
+    <row r="608">
+      <c r="U608" s="4"/>
+    </row>
+    <row r="609">
+      <c r="U609" s="4"/>
+    </row>
+    <row r="610">
+      <c r="U610" s="4"/>
+    </row>
+    <row r="611">
+      <c r="U611" s="4"/>
+    </row>
+    <row r="612">
+      <c r="U612" s="4"/>
+    </row>
+    <row r="613">
+      <c r="U613" s="4"/>
+    </row>
+    <row r="614">
+      <c r="U614" s="4"/>
+    </row>
+    <row r="615">
+      <c r="U615" s="4"/>
+    </row>
+    <row r="616">
+      <c r="U616" s="4"/>
+    </row>
+    <row r="617">
+      <c r="U617" s="4"/>
+    </row>
+    <row r="618">
+      <c r="U618" s="4"/>
+    </row>
+    <row r="619">
+      <c r="U619" s="4"/>
+    </row>
+    <row r="620">
+      <c r="U620" s="4"/>
+    </row>
+    <row r="621">
+      <c r="U621" s="4"/>
+    </row>
+    <row r="622">
+      <c r="U622" s="4"/>
+    </row>
+    <row r="623">
+      <c r="U623" s="4"/>
+    </row>
+    <row r="624">
+      <c r="U624" s="4"/>
+    </row>
+    <row r="625">
+      <c r="U625" s="4"/>
+    </row>
+    <row r="626">
+      <c r="U626" s="4"/>
+    </row>
+    <row r="627">
+      <c r="U627" s="4"/>
+    </row>
+    <row r="628">
+      <c r="U628" s="4"/>
+    </row>
+    <row r="629">
+      <c r="U629" s="4"/>
+    </row>
+    <row r="630">
+      <c r="U630" s="4"/>
+    </row>
+    <row r="631">
+      <c r="U631" s="4"/>
+    </row>
+    <row r="632">
+      <c r="U632" s="4"/>
+    </row>
+    <row r="633">
+      <c r="U633" s="4"/>
+    </row>
+    <row r="634">
+      <c r="U634" s="4"/>
+    </row>
+    <row r="635">
+      <c r="U635" s="4"/>
+    </row>
+    <row r="636">
+      <c r="U636" s="4"/>
+    </row>
+    <row r="637">
+      <c r="U637" s="4"/>
+    </row>
+    <row r="638">
+      <c r="U638" s="4"/>
+    </row>
+    <row r="639">
+      <c r="U639" s="4"/>
+    </row>
+    <row r="640">
+      <c r="U640" s="4"/>
+    </row>
+    <row r="641">
+      <c r="U641" s="4"/>
+    </row>
+    <row r="642">
+      <c r="U642" s="4"/>
+    </row>
+    <row r="643">
+      <c r="U643" s="4"/>
+    </row>
+    <row r="644">
+      <c r="U644" s="4"/>
+    </row>
+    <row r="645">
+      <c r="U645" s="4"/>
+    </row>
+    <row r="646">
+      <c r="U646" s="4"/>
+    </row>
+    <row r="647">
+      <c r="U647" s="4"/>
+    </row>
+    <row r="648">
+      <c r="U648" s="4"/>
+    </row>
+    <row r="649">
+      <c r="U649" s="4"/>
+    </row>
+    <row r="650">
+      <c r="U650" s="4"/>
+    </row>
+    <row r="651">
+      <c r="U651" s="4"/>
+    </row>
+    <row r="652">
+      <c r="U652" s="4"/>
+    </row>
+    <row r="653">
+      <c r="U653" s="4"/>
+    </row>
+    <row r="654">
+      <c r="U654" s="4"/>
+    </row>
+    <row r="655">
+      <c r="U655" s="4"/>
+    </row>
+    <row r="656">
+      <c r="U656" s="4"/>
+    </row>
+    <row r="657">
+      <c r="U657" s="4"/>
+    </row>
+    <row r="658">
+      <c r="U658" s="4"/>
+    </row>
+    <row r="659">
+      <c r="U659" s="4"/>
+    </row>
+    <row r="660">
+      <c r="U660" s="4"/>
+    </row>
+    <row r="661">
+      <c r="U661" s="4"/>
+    </row>
+    <row r="662">
+      <c r="U662" s="4"/>
+    </row>
+    <row r="663">
+      <c r="U663" s="4"/>
+    </row>
+    <row r="664">
+      <c r="U664" s="4"/>
+    </row>
+    <row r="665">
+      <c r="U665" s="4"/>
+    </row>
+    <row r="666">
+      <c r="U666" s="4"/>
+    </row>
+    <row r="667">
+      <c r="U667" s="4"/>
+    </row>
+    <row r="668">
+      <c r="U668" s="4"/>
+    </row>
+    <row r="669">
+      <c r="U669" s="4"/>
+    </row>
+    <row r="670">
+      <c r="U670" s="4"/>
+    </row>
+    <row r="671">
+      <c r="U671" s="4"/>
+    </row>
+    <row r="672">
+      <c r="U672" s="4"/>
+    </row>
+    <row r="673">
+      <c r="U673" s="4"/>
+    </row>
+    <row r="674">
+      <c r="U674" s="4"/>
+    </row>
+    <row r="675">
+      <c r="U675" s="4"/>
+    </row>
+    <row r="676">
+      <c r="U676" s="4"/>
+    </row>
+    <row r="677">
+      <c r="U677" s="4"/>
+    </row>
+    <row r="678">
+      <c r="U678" s="4"/>
+    </row>
+    <row r="679">
+      <c r="U679" s="4"/>
+    </row>
+    <row r="680">
+      <c r="U680" s="4"/>
+    </row>
+    <row r="681">
+      <c r="U681" s="4"/>
+    </row>
+    <row r="682">
+      <c r="U682" s="4"/>
+    </row>
+    <row r="683">
+      <c r="U683" s="4"/>
+    </row>
+    <row r="684">
+      <c r="U684" s="4"/>
+    </row>
+    <row r="685">
+      <c r="U685" s="4"/>
+    </row>
+    <row r="686">
+      <c r="U686" s="4"/>
+    </row>
+    <row r="687">
+      <c r="U687" s="4"/>
+    </row>
+    <row r="688">
+      <c r="U688" s="4"/>
+    </row>
+    <row r="689">
+      <c r="U689" s="4"/>
+    </row>
+    <row r="690">
+      <c r="U690" s="4"/>
+    </row>
+    <row r="691">
+      <c r="U691" s="4"/>
+    </row>
+    <row r="692">
+      <c r="U692" s="4"/>
+    </row>
+    <row r="693">
+      <c r="U693" s="4"/>
+    </row>
+    <row r="694">
+      <c r="U694" s="4"/>
+    </row>
+    <row r="695">
+      <c r="U695" s="4"/>
+    </row>
+    <row r="696">
+      <c r="U696" s="4"/>
+    </row>
+    <row r="697">
+      <c r="U697" s="4"/>
+    </row>
+    <row r="698">
+      <c r="U698" s="4"/>
+    </row>
+    <row r="699">
+      <c r="U699" s="4"/>
+    </row>
+    <row r="700">
+      <c r="U700" s="4"/>
+    </row>
+    <row r="701">
+      <c r="U701" s="4"/>
+    </row>
+    <row r="702">
+      <c r="U702" s="4"/>
+    </row>
+    <row r="703">
+      <c r="U703" s="4"/>
+    </row>
+    <row r="704">
+      <c r="U704" s="4"/>
+    </row>
+    <row r="705">
+      <c r="U705" s="4"/>
+    </row>
+    <row r="706">
+      <c r="U706" s="4"/>
+    </row>
+    <row r="707">
+      <c r="U707" s="4"/>
+    </row>
+    <row r="708">
+      <c r="U708" s="4"/>
+    </row>
+    <row r="709">
+      <c r="U709" s="4"/>
+    </row>
+    <row r="710">
+      <c r="U710" s="4"/>
+    </row>
+    <row r="711">
+      <c r="U711" s="4"/>
+    </row>
+    <row r="712">
+      <c r="U712" s="4"/>
+    </row>
+    <row r="713">
+      <c r="U713" s="4"/>
+    </row>
+    <row r="714">
+      <c r="U714" s="4"/>
+    </row>
+    <row r="715">
+      <c r="U715" s="4"/>
+    </row>
+    <row r="716">
+      <c r="U716" s="4"/>
+    </row>
+    <row r="717">
+      <c r="U717" s="4"/>
+    </row>
+    <row r="718">
+      <c r="U718" s="4"/>
+    </row>
+    <row r="719">
+      <c r="U719" s="4"/>
+    </row>
+    <row r="720">
+      <c r="U720" s="4"/>
+    </row>
+    <row r="721">
+      <c r="U721" s="4"/>
+    </row>
+    <row r="722">
+      <c r="U722" s="4"/>
+    </row>
+    <row r="723">
+      <c r="U723" s="4"/>
+    </row>
+    <row r="724">
+      <c r="U724" s="4"/>
+    </row>
+    <row r="725">
+      <c r="U725" s="4"/>
+    </row>
+    <row r="726">
+      <c r="U726" s="4"/>
+    </row>
+    <row r="727">
+      <c r="U727" s="4"/>
+    </row>
+    <row r="728">
+      <c r="U728" s="4"/>
+    </row>
+    <row r="729">
+      <c r="U729" s="4"/>
+    </row>
+    <row r="730">
+      <c r="U730" s="4"/>
+    </row>
+    <row r="731">
+      <c r="U731" s="4"/>
+    </row>
+    <row r="732">
+      <c r="U732" s="4"/>
+    </row>
+    <row r="733">
+      <c r="U733" s="4"/>
+    </row>
+    <row r="734">
+      <c r="U734" s="4"/>
+    </row>
+    <row r="735">
+      <c r="U735" s="4"/>
+    </row>
+    <row r="736">
+      <c r="U736" s="4"/>
+    </row>
+    <row r="737">
+      <c r="U737" s="4"/>
+    </row>
+    <row r="738">
+      <c r="U738" s="4"/>
+    </row>
+    <row r="739">
+      <c r="U739" s="4"/>
+    </row>
+    <row r="740">
+      <c r="U740" s="4"/>
+    </row>
+    <row r="741">
+      <c r="U741" s="4"/>
+    </row>
+    <row r="742">
+      <c r="U742" s="4"/>
+    </row>
+    <row r="743">
+      <c r="U743" s="4"/>
+    </row>
+    <row r="744">
+      <c r="U744" s="4"/>
+    </row>
+    <row r="745">
+      <c r="U745" s="4"/>
+    </row>
+    <row r="746">
+      <c r="U746" s="4"/>
+    </row>
+    <row r="747">
+      <c r="U747" s="4"/>
+    </row>
+    <row r="748">
+      <c r="U748" s="4"/>
+    </row>
+    <row r="749">
+      <c r="U749" s="4"/>
+    </row>
+    <row r="750">
+      <c r="U750" s="4"/>
+    </row>
+    <row r="751">
+      <c r="U751" s="4"/>
+    </row>
+    <row r="752">
+      <c r="U752" s="4"/>
+    </row>
+    <row r="753">
+      <c r="U753" s="4"/>
+    </row>
+    <row r="754">
+      <c r="U754" s="4"/>
+    </row>
+    <row r="755">
+      <c r="U755" s="4"/>
+    </row>
+    <row r="756">
+      <c r="U756" s="4"/>
+    </row>
+    <row r="757">
+      <c r="U757" s="4"/>
+    </row>
+    <row r="758">
+      <c r="U758" s="4"/>
+    </row>
+    <row r="759">
+      <c r="U759" s="4"/>
+    </row>
+    <row r="760">
+      <c r="U760" s="4"/>
+    </row>
+    <row r="761">
+      <c r="U761" s="4"/>
+    </row>
+    <row r="762">
+      <c r="U762" s="4"/>
+    </row>
+    <row r="763">
+      <c r="U763" s="4"/>
+    </row>
+    <row r="764">
+      <c r="U764" s="4"/>
+    </row>
+    <row r="765">
+      <c r="U765" s="4"/>
+    </row>
+    <row r="766">
+      <c r="U766" s="4"/>
+    </row>
+    <row r="767">
+      <c r="U767" s="4"/>
+    </row>
+    <row r="768">
+      <c r="U768" s="4"/>
+    </row>
+    <row r="769">
+      <c r="U769" s="4"/>
+    </row>
+    <row r="770">
+      <c r="U770" s="4"/>
+    </row>
+    <row r="771">
+      <c r="U771" s="4"/>
+    </row>
+    <row r="772">
+      <c r="U772" s="4"/>
+    </row>
+    <row r="773">
+      <c r="U773" s="4"/>
+    </row>
+    <row r="774">
+      <c r="U774" s="4"/>
+    </row>
+    <row r="775">
+      <c r="U775" s="4"/>
+    </row>
+    <row r="776">
+      <c r="U776" s="4"/>
+    </row>
+    <row r="777">
+      <c r="U777" s="4"/>
+    </row>
+    <row r="778">
+      <c r="U778" s="4"/>
+    </row>
+    <row r="779">
+      <c r="U779" s="4"/>
+    </row>
+    <row r="780">
+      <c r="U780" s="4"/>
+    </row>
+    <row r="781">
+      <c r="U781" s="4"/>
+    </row>
+    <row r="782">
+      <c r="U782" s="4"/>
+    </row>
+    <row r="783">
+      <c r="U783" s="4"/>
+    </row>
+    <row r="784">
+      <c r="U784" s="4"/>
+    </row>
+    <row r="785">
+      <c r="U785" s="4"/>
+    </row>
+    <row r="786">
+      <c r="U786" s="4"/>
+    </row>
+    <row r="787">
+      <c r="U787" s="4"/>
+    </row>
+    <row r="788">
+      <c r="U788" s="4"/>
+    </row>
+    <row r="789">
+      <c r="U789" s="4"/>
+    </row>
+    <row r="790">
+      <c r="U790" s="4"/>
+    </row>
+    <row r="791">
+      <c r="U791" s="4"/>
+    </row>
+    <row r="792">
+      <c r="U792" s="4"/>
+    </row>
+    <row r="793">
+      <c r="U793" s="4"/>
+    </row>
+    <row r="794">
+      <c r="U794" s="4"/>
+    </row>
+    <row r="795">
+      <c r="U795" s="4"/>
+    </row>
+    <row r="796">
+      <c r="U796" s="4"/>
+    </row>
+    <row r="797">
+      <c r="U797" s="4"/>
+    </row>
+    <row r="798">
+      <c r="U798" s="4"/>
+    </row>
+    <row r="799">
+      <c r="U799" s="4"/>
+    </row>
+    <row r="800">
+      <c r="U800" s="4"/>
+    </row>
+    <row r="801">
+      <c r="U801" s="4"/>
+    </row>
+    <row r="802">
+      <c r="U802" s="4"/>
+    </row>
+    <row r="803">
+      <c r="U803" s="4"/>
+    </row>
+    <row r="804">
+      <c r="U804" s="4"/>
+    </row>
+    <row r="805">
+      <c r="U805" s="4"/>
+    </row>
+    <row r="806">
+      <c r="U806" s="4"/>
+    </row>
+    <row r="807">
+      <c r="U807" s="4"/>
+    </row>
+    <row r="808">
+      <c r="U808" s="4"/>
+    </row>
+    <row r="809">
+      <c r="U809" s="4"/>
+    </row>
+    <row r="810">
+      <c r="U810" s="4"/>
+    </row>
+    <row r="811">
+      <c r="U811" s="4"/>
+    </row>
+    <row r="812">
+      <c r="U812" s="4"/>
+    </row>
+    <row r="813">
+      <c r="U813" s="4"/>
+    </row>
+    <row r="814">
+      <c r="U814" s="4"/>
+    </row>
+    <row r="815">
+      <c r="U815" s="4"/>
+    </row>
+    <row r="816">
+      <c r="U816" s="4"/>
+    </row>
+    <row r="817">
+      <c r="U817" s="4"/>
+    </row>
+    <row r="818">
+      <c r="U818" s="4"/>
+    </row>
+    <row r="819">
+      <c r="U819" s="4"/>
+    </row>
+    <row r="820">
+      <c r="U820" s="4"/>
+    </row>
+    <row r="821">
+      <c r="U821" s="4"/>
+    </row>
+    <row r="822">
+      <c r="U822" s="4"/>
+    </row>
+    <row r="823">
+      <c r="U823" s="4"/>
+    </row>
+    <row r="824">
+      <c r="U824" s="4"/>
+    </row>
+    <row r="825">
+      <c r="U825" s="4"/>
+    </row>
+    <row r="826">
+      <c r="U826" s="4"/>
+    </row>
+    <row r="827">
+      <c r="U827" s="4"/>
+    </row>
+    <row r="828">
+      <c r="U828" s="4"/>
+    </row>
+    <row r="829">
+      <c r="U829" s="4"/>
+    </row>
+    <row r="830">
+      <c r="U830" s="4"/>
+    </row>
+    <row r="831">
+      <c r="U831" s="4"/>
+    </row>
+    <row r="832">
+      <c r="U832" s="4"/>
+    </row>
+    <row r="833">
+      <c r="U833" s="4"/>
+    </row>
+    <row r="834">
+      <c r="U834" s="4"/>
+    </row>
+    <row r="835">
+      <c r="U835" s="4"/>
+    </row>
+    <row r="836">
+      <c r="U836" s="4"/>
+    </row>
+    <row r="837">
+      <c r="U837" s="4"/>
+    </row>
+    <row r="838">
+      <c r="U838" s="4"/>
+    </row>
+    <row r="839">
+      <c r="U839" s="4"/>
+    </row>
+    <row r="840">
+      <c r="U840" s="4"/>
+    </row>
+    <row r="841">
+      <c r="U841" s="4"/>
+    </row>
+    <row r="842">
+      <c r="U842" s="4"/>
+    </row>
+    <row r="843">
+      <c r="U843" s="4"/>
+    </row>
+    <row r="844">
+      <c r="U844" s="4"/>
+    </row>
+    <row r="845">
+      <c r="U845" s="4"/>
+    </row>
+    <row r="846">
+      <c r="U846" s="4"/>
+    </row>
+    <row r="847">
+      <c r="U847" s="4"/>
+    </row>
+    <row r="848">
+      <c r="U848" s="4"/>
+    </row>
+    <row r="849">
+      <c r="U849" s="4"/>
+    </row>
+    <row r="850">
+      <c r="U850" s="4"/>
+    </row>
+    <row r="851">
+      <c r="U851" s="4"/>
+    </row>
+    <row r="852">
+      <c r="U852" s="4"/>
+    </row>
+    <row r="853">
+      <c r="U853" s="4"/>
+    </row>
+    <row r="854">
+      <c r="U854" s="4"/>
+    </row>
+    <row r="855">
+      <c r="U855" s="4"/>
+    </row>
+    <row r="856">
+      <c r="U856" s="4"/>
+    </row>
+    <row r="857">
+      <c r="U857" s="4"/>
+    </row>
+    <row r="858">
+      <c r="U858" s="4"/>
+    </row>
+    <row r="859">
+      <c r="U859" s="4"/>
+    </row>
+    <row r="860">
+      <c r="U860" s="4"/>
+    </row>
+    <row r="861">
+      <c r="U861" s="4"/>
+    </row>
+    <row r="862">
+      <c r="U862" s="4"/>
+    </row>
+    <row r="863">
+      <c r="U863" s="4"/>
+    </row>
+    <row r="864">
+      <c r="U864" s="4"/>
+    </row>
+    <row r="865">
+      <c r="U865" s="4"/>
+    </row>
+    <row r="866">
+      <c r="U866" s="4"/>
+    </row>
+    <row r="867">
+      <c r="U867" s="4"/>
+    </row>
+    <row r="868">
+      <c r="U868" s="4"/>
+    </row>
+    <row r="869">
+      <c r="U869" s="4"/>
+    </row>
+    <row r="870">
+      <c r="U870" s="4"/>
+    </row>
+    <row r="871">
+      <c r="U871" s="4"/>
+    </row>
+    <row r="872">
+      <c r="U872" s="4"/>
+    </row>
+    <row r="873">
+      <c r="U873" s="4"/>
+    </row>
+    <row r="874">
+      <c r="U874" s="4"/>
+    </row>
+    <row r="875">
+      <c r="U875" s="4"/>
+    </row>
+    <row r="876">
+      <c r="U876" s="4"/>
+    </row>
+    <row r="877">
+      <c r="U877" s="4"/>
+    </row>
+    <row r="878">
+      <c r="U878" s="4"/>
+    </row>
+    <row r="879">
+      <c r="U879" s="4"/>
+    </row>
+    <row r="880">
+      <c r="U880" s="4"/>
+    </row>
+    <row r="881">
+      <c r="U881" s="4"/>
+    </row>
+    <row r="882">
+      <c r="U882" s="4"/>
+    </row>
+    <row r="883">
+      <c r="U883" s="4"/>
+    </row>
+    <row r="884">
+      <c r="U884" s="4"/>
+    </row>
+    <row r="885">
+      <c r="U885" s="4"/>
+    </row>
+    <row r="886">
+      <c r="U886" s="4"/>
+    </row>
+    <row r="887">
+      <c r="U887" s="4"/>
+    </row>
+    <row r="888">
+      <c r="U888" s="4"/>
+    </row>
+    <row r="889">
+      <c r="U889" s="4"/>
+    </row>
+    <row r="890">
+      <c r="U890" s="4"/>
+    </row>
+    <row r="891">
+      <c r="U891" s="4"/>
+    </row>
+    <row r="892">
+      <c r="U892" s="4"/>
+    </row>
+    <row r="893">
+      <c r="U893" s="4"/>
+    </row>
+    <row r="894">
+      <c r="U894" s="4"/>
+    </row>
+    <row r="895">
+      <c r="U895" s="4"/>
+    </row>
+    <row r="896">
+      <c r="U896" s="4"/>
+    </row>
+    <row r="897">
+      <c r="U897" s="4"/>
+    </row>
+    <row r="898">
+      <c r="U898" s="4"/>
+    </row>
+    <row r="899">
+      <c r="U899" s="4"/>
+    </row>
+    <row r="900">
+      <c r="U900" s="4"/>
+    </row>
+    <row r="901">
+      <c r="U901" s="4"/>
+    </row>
+    <row r="902">
+      <c r="U902" s="4"/>
+    </row>
+    <row r="903">
+      <c r="U903" s="4"/>
+    </row>
+    <row r="904">
+      <c r="U904" s="4"/>
+    </row>
+    <row r="905">
+      <c r="U905" s="4"/>
+    </row>
+    <row r="906">
+      <c r="U906" s="4"/>
+    </row>
+    <row r="907">
+      <c r="U907" s="4"/>
+    </row>
+    <row r="908">
+      <c r="U908" s="4"/>
+    </row>
+    <row r="909">
+      <c r="U909" s="4"/>
+    </row>
+    <row r="910">
+      <c r="U910" s="4"/>
+    </row>
+    <row r="911">
+      <c r="U911" s="4"/>
+    </row>
+    <row r="912">
+      <c r="U912" s="4"/>
+    </row>
+    <row r="913">
+      <c r="U913" s="4"/>
+    </row>
+    <row r="914">
+      <c r="U914" s="4"/>
+    </row>
+    <row r="915">
+      <c r="U915" s="4"/>
+    </row>
+    <row r="916">
+      <c r="U916" s="4"/>
+    </row>
+    <row r="917">
+      <c r="U917" s="4"/>
+    </row>
+    <row r="918">
+      <c r="U918" s="4"/>
+    </row>
+    <row r="919">
+      <c r="U919" s="4"/>
+    </row>
+    <row r="920">
+      <c r="U920" s="4"/>
+    </row>
+    <row r="921">
+      <c r="U921" s="4"/>
+    </row>
+    <row r="922">
+      <c r="U922" s="4"/>
+    </row>
+    <row r="923">
+      <c r="U923" s="4"/>
+    </row>
+    <row r="924">
+      <c r="U924" s="4"/>
+    </row>
+    <row r="925">
+      <c r="U925" s="4"/>
+    </row>
+    <row r="926">
+      <c r="U926" s="4"/>
+    </row>
+    <row r="927">
+      <c r="U927" s="4"/>
+    </row>
+    <row r="928">
+      <c r="U928" s="4"/>
+    </row>
+    <row r="929">
+      <c r="U929" s="4"/>
+    </row>
+    <row r="930">
+      <c r="U930" s="4"/>
+    </row>
+    <row r="931">
+      <c r="U931" s="4"/>
+    </row>
+    <row r="932">
+      <c r="U932" s="4"/>
+    </row>
+    <row r="933">
+      <c r="U933" s="4"/>
+    </row>
+    <row r="934">
+      <c r="U934" s="4"/>
+    </row>
+    <row r="935">
+      <c r="U935" s="4"/>
+    </row>
+    <row r="936">
+      <c r="U936" s="4"/>
+    </row>
+    <row r="937">
+      <c r="U937" s="4"/>
+    </row>
+    <row r="938">
+      <c r="U938" s="4"/>
+    </row>
+    <row r="939">
+      <c r="U939" s="4"/>
+    </row>
+    <row r="940">
+      <c r="U940" s="4"/>
+    </row>
+    <row r="941">
+      <c r="U941" s="4"/>
+    </row>
+    <row r="942">
+      <c r="U942" s="4"/>
+    </row>
+    <row r="943">
+      <c r="U943" s="4"/>
+    </row>
+    <row r="944">
+      <c r="U944" s="4"/>
+    </row>
+    <row r="945">
+      <c r="U945" s="4"/>
+    </row>
+    <row r="946">
+      <c r="U946" s="4"/>
+    </row>
+    <row r="947">
+      <c r="U947" s="4"/>
+    </row>
+    <row r="948">
+      <c r="U948" s="4"/>
+    </row>
+    <row r="949">
+      <c r="U949" s="4"/>
+    </row>
+    <row r="950">
+      <c r="U950" s="4"/>
+    </row>
+    <row r="951">
+      <c r="U951" s="4"/>
+    </row>
+    <row r="952">
+      <c r="U952" s="4"/>
+    </row>
+    <row r="953">
+      <c r="U953" s="4"/>
+    </row>
+    <row r="954">
+      <c r="U954" s="4"/>
+    </row>
+    <row r="955">
+      <c r="U955" s="4"/>
+    </row>
+    <row r="956">
+      <c r="U956" s="4"/>
+    </row>
+    <row r="957">
+      <c r="U957" s="4"/>
+    </row>
+    <row r="958">
+      <c r="U958" s="4"/>
+    </row>
+    <row r="959">
+      <c r="U959" s="4"/>
+    </row>
+    <row r="960">
+      <c r="U960" s="4"/>
+    </row>
+    <row r="961">
+      <c r="U961" s="4"/>
+    </row>
+    <row r="962">
+      <c r="U962" s="4"/>
+    </row>
+    <row r="963">
+      <c r="U963" s="4"/>
+    </row>
+    <row r="964">
+      <c r="U964" s="4"/>
+    </row>
+    <row r="965">
+      <c r="U965" s="4"/>
+    </row>
+    <row r="966">
+      <c r="U966" s="4"/>
+    </row>
+    <row r="967">
+      <c r="U967" s="4"/>
+    </row>
+    <row r="968">
+      <c r="U968" s="4"/>
+    </row>
+    <row r="969">
+      <c r="U969" s="4"/>
+    </row>
+    <row r="970">
+      <c r="U970" s="4"/>
+    </row>
+    <row r="971">
+      <c r="U971" s="4"/>
+    </row>
+    <row r="972">
+      <c r="U972" s="4"/>
+    </row>
+    <row r="973">
+      <c r="U973" s="4"/>
+    </row>
+    <row r="974">
+      <c r="U974" s="4"/>
+    </row>
+    <row r="975">
+      <c r="U975" s="4"/>
+    </row>
+    <row r="976">
+      <c r="U976" s="4"/>
+    </row>
+    <row r="977">
+      <c r="U977" s="4"/>
+    </row>
+    <row r="978">
+      <c r="U978" s="4"/>
+    </row>
+    <row r="979">
+      <c r="U979" s="4"/>
+    </row>
+    <row r="980">
+      <c r="U980" s="4"/>
+    </row>
+    <row r="981">
+      <c r="U981" s="4"/>
+    </row>
+    <row r="982">
+      <c r="U982" s="4"/>
+    </row>
+    <row r="983">
+      <c r="U983" s="4"/>
+    </row>
+    <row r="984">
+      <c r="U984" s="4"/>
+    </row>
+    <row r="985">
+      <c r="U985" s="4"/>
+    </row>
+    <row r="986">
+      <c r="U986" s="4"/>
+    </row>
+    <row r="987">
+      <c r="U987" s="4"/>
+    </row>
+    <row r="988">
+      <c r="U988" s="4"/>
+    </row>
+    <row r="989">
+      <c r="U989" s="4"/>
+    </row>
+    <row r="990">
+      <c r="U990" s="4"/>
+    </row>
+    <row r="991">
+      <c r="U991" s="4"/>
+    </row>
+    <row r="992">
+      <c r="U992" s="4"/>
+    </row>
+    <row r="993">
+      <c r="U993" s="4"/>
+    </row>
+    <row r="994">
+      <c r="U994" s="4"/>
+    </row>
+    <row r="995">
+      <c r="U995" s="4"/>
+    </row>
+    <row r="996">
+      <c r="U996" s="4"/>
+    </row>
+    <row r="997">
+      <c r="U997" s="4"/>
+    </row>
+    <row r="998">
+      <c r="U998" s="4"/>
+    </row>
+    <row r="999">
+      <c r="U999" s="4"/>
+    </row>
+    <row r="1000">
+      <c r="U1000" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
